--- a/code/result/consistent/english/GPT4-FAST_english.xlsx
+++ b/code/result/consistent/english/GPT4-FAST_english.xlsx
@@ -442,118 +442,74 @@
       <c r="B1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -2045,118 +2001,74 @@
       <c r="B1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
+      <c r="I1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -3651,115 +3563,71 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
